--- a/biology/Botanique/Aira_caryophyllea/Aira_caryophyllea.xlsx
+++ b/biology/Botanique/Aira_caryophyllea/Aira_caryophyllea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aira caryophyllea, la canche caryophyllée, est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire d'Afrique et d'Eurasie .
 Ce sont des plantes herbacées annuelles aux tiges dressées pouvant atteindre 60 cm de long, aux inflorescences en panicules. 
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 mars 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 mars 2018) :
 Agrostis caryophyllea (L.) Salisb.
 Aira aggregata Timeroy ex Bor.
 Aira armoricana F.Albers
@@ -601,9 +615,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 mars 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 mars 2018) :
 Aira caryophyllea subsp. caryophyllea
 Aira caryophyllea subsp. plesiantha (Jord.) K. Richt.</t>
         </is>
